--- a/rnaSample/rnaSample_hbrown_10.18.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.18.19.xlsx
@@ -28,7 +28,7 @@
     <t xml:space="preserve">harvester</t>
   </si>
   <si>
-    <t xml:space="preserve">biosampleNumber</t>
+    <t xml:space="preserve">bioSampleNumber</t>
   </si>
   <si>
     <t xml:space="preserve">rnaDate</t>
@@ -186,7 +186,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="8">
+  <fonts count="9">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -215,6 +215,12 @@
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -279,7 +285,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -292,15 +298,19 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -328,7 +338,7 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H37" activeCellId="0" sqref="H37"/>
+      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -343,7 +353,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -389,28 +399,29 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="4" t="n">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="5" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="4" t="s">
+      <c r="D2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="6" t="b">
+      <c r="G2" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
       <c r="I2" s="1"/>
@@ -436,7 +447,7 @@
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="B3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -445,16 +456,17 @@
       <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="6" t="b">
+      <c r="G3" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -462,7 +474,7 @@
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -471,16 +483,17 @@
       <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="6" t="b">
+      <c r="G4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -488,7 +501,7 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="B5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -497,16 +510,17 @@
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="3" t="s">
+      <c r="E5" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="6" t="b">
+      <c r="G5" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -514,7 +528,7 @@
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -523,16 +537,17 @@
       <c r="D6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="6" t="b">
+      <c r="G6" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -540,7 +555,7 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -549,16 +564,17 @@
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="6" t="b">
+      <c r="G7" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -566,7 +582,7 @@
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -575,16 +591,17 @@
       <c r="D8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="6" t="b">
+      <c r="G8" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -592,7 +609,7 @@
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -601,16 +618,17 @@
       <c r="D9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="3" t="s">
+      <c r="E9" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="6" t="b">
+      <c r="G9" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -618,7 +636,7 @@
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -627,16 +645,17 @@
       <c r="D10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="3" t="s">
+      <c r="E10" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="6" t="b">
+      <c r="G10" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -644,7 +663,7 @@
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="B11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -653,16 +672,17 @@
       <c r="D11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="E11" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="6" t="b">
+      <c r="G11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -670,7 +690,7 @@
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -679,16 +699,17 @@
       <c r="D12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="6" t="b">
+      <c r="G12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -696,7 +717,7 @@
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -705,16 +726,17 @@
       <c r="D13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="E13" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="6" t="b">
+      <c r="G13" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -722,7 +744,7 @@
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="B14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -731,16 +753,17 @@
       <c r="D14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="3" t="s">
+      <c r="E14" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="6" t="b">
+      <c r="G14" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -748,7 +771,7 @@
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="B15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -757,16 +780,17 @@
       <c r="D15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E15" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="6" t="b">
+      <c r="G15" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -774,7 +798,7 @@
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="B16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -783,16 +807,17 @@
       <c r="D16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="3" t="s">
+      <c r="E16" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="6" t="b">
+      <c r="G16" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -800,7 +825,7 @@
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="B17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -809,16 +834,17 @@
       <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="3" t="s">
+      <c r="E17" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="6" t="b">
+      <c r="G17" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -826,7 +852,7 @@
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="B18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -835,16 +861,17 @@
       <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="3" t="s">
+      <c r="E18" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="6" t="b">
+      <c r="G18" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -852,7 +879,7 @@
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="3" t="s">
+      <c r="B19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -861,16 +888,17 @@
       <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="3" t="s">
+      <c r="E19" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="6" t="b">
+      <c r="G19" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -878,7 +906,7 @@
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="3" t="s">
+      <c r="B20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -887,16 +915,17 @@
       <c r="D20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="3" t="s">
+      <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="6" t="b">
+      <c r="G20" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -904,7 +933,7 @@
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="3" t="s">
+      <c r="B21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -913,16 +942,17 @@
       <c r="D21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="3" t="s">
+      <c r="E21" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="6" t="b">
+      <c r="G21" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -930,7 +960,7 @@
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="3" t="s">
+      <c r="B22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -939,16 +969,17 @@
       <c r="D22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="3" t="s">
+      <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="6" t="b">
+      <c r="G22" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -956,7 +987,7 @@
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="3" t="s">
+      <c r="B23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -965,16 +996,17 @@
       <c r="D23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="E23" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="6" t="b">
+      <c r="G23" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -982,7 +1014,7 @@
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="3" t="s">
+      <c r="B24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -991,16 +1023,17 @@
       <c r="D24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="3" t="s">
+      <c r="E24" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="6" t="b">
+      <c r="G24" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1008,7 +1041,7 @@
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="3" t="s">
+      <c r="B25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1017,16 +1050,17 @@
       <c r="D25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="3" t="s">
+      <c r="E25" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="6" t="b">
+      <c r="G25" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1034,7 +1068,7 @@
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="3" t="s">
+      <c r="B26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1043,16 +1077,17 @@
       <c r="D26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="3" t="s">
+      <c r="E26" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="6" t="b">
+      <c r="G26" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1060,7 +1095,7 @@
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="3" t="s">
+      <c r="B27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1069,16 +1104,17 @@
       <c r="D27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="3" t="s">
+      <c r="E27" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="6" t="b">
+      <c r="G27" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1086,7 +1122,7 @@
       <c r="A28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="3" t="s">
+      <c r="B28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1095,16 +1131,17 @@
       <c r="D28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="3" t="s">
+      <c r="E28" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="6" t="b">
+      <c r="G28" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1112,7 +1149,7 @@
       <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="3" t="s">
+      <c r="B29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1121,16 +1158,17 @@
       <c r="D29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="3" t="s">
+      <c r="E29" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="6" t="b">
+      <c r="G29" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1138,7 +1176,7 @@
       <c r="A30" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="3" t="s">
+      <c r="B30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1147,16 +1185,17 @@
       <c r="D30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="3" t="s">
+      <c r="E30" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="6" t="b">
+      <c r="G30" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1164,7 +1203,7 @@
       <c r="A31" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="3" t="s">
+      <c r="B31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -1173,16 +1212,17 @@
       <c r="D31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="3" t="s">
+      <c r="E31" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="6" t="b">
+      <c r="G31" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1190,7 +1230,7 @@
       <c r="A32" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="3" t="s">
+      <c r="B32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -1199,16 +1239,17 @@
       <c r="D32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="6" t="b">
+      <c r="G32" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1216,7 +1257,7 @@
       <c r="A33" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="3" t="s">
+      <c r="B33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -1225,16 +1266,17 @@
       <c r="D33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="6" t="b">
+      <c r="G33" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1242,7 +1284,7 @@
       <c r="A34" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="3" t="s">
+      <c r="B34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -1251,16 +1293,17 @@
       <c r="D34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="3" t="s">
+      <c r="E34" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="6" t="b">
+      <c r="G34" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1268,7 +1311,7 @@
       <c r="A35" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="3" t="s">
+      <c r="B35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -1277,16 +1320,17 @@
       <c r="D35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="6" t="b">
+      <c r="G35" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1294,7 +1338,7 @@
       <c r="A36" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="3" t="s">
+      <c r="B36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -1303,16 +1347,17 @@
       <c r="D36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="3" t="s">
+      <c r="E36" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="6" t="b">
+      <c r="G36" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
@@ -1320,7 +1365,7 @@
       <c r="A37" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="3" t="s">
+      <c r="B37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -1329,16 +1374,17 @@
       <c r="D37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="6" t="b">
+      <c r="G37" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="7" t="n">
+        <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>

--- a/rnaSample/rnaSample_hbrown_10.18.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.18.19.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">4d 1</t>
   </si>
   <si>
-    <t xml:space="preserve">Trizol</t>
+    <t xml:space="preserve">TRIzol</t>
   </si>
   <si>
     <t xml:space="preserve">4d 2</t>
@@ -186,7 +186,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -218,12 +218,6 @@
     </font>
     <font>
       <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
@@ -232,13 +226,6 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -285,7 +272,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -298,20 +285,12 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
@@ -338,10 +317,10 @@
   <dimension ref="A1:Z37"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C1" activeCellId="0" sqref="C1"/>
+      <selection pane="topLeft" activeCell="G2" activeCellId="0" sqref="G2:G37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="10.61"/>
   </cols>
@@ -353,7 +332,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1" t="s">
@@ -399,28 +378,28 @@
       <c r="Z1" s="1"/>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="5" t="n">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="n">
         <v>1</v>
       </c>
-      <c r="D2" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="5" t="s">
+      <c r="D2" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="H2" s="7" t="n">
+      <c r="G2" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H2" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -447,7 +426,7 @@
       <c r="A3" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="0" t="n">
@@ -456,16 +435,16 @@
       <c r="D3" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F3" s="0" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H3" s="7" t="n">
+      <c r="G3" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H3" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -474,7 +453,7 @@
       <c r="A4" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="4" t="s">
+      <c r="B4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C4" s="0" t="n">
@@ -483,16 +462,16 @@
       <c r="D4" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E4" s="4" t="s">
+      <c r="E4" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F4" s="0" t="s">
         <v>18</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="7" t="n">
+      <c r="G4" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H4" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -501,7 +480,7 @@
       <c r="A5" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C5" s="0" t="n">
@@ -510,16 +489,16 @@
       <c r="D5" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E5" s="4" t="s">
+      <c r="E5" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F5" s="0" t="s">
         <v>19</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H5" s="7" t="n">
+      <c r="G5" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -528,7 +507,7 @@
       <c r="A6" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="0" t="n">
@@ -537,16 +516,16 @@
       <c r="D6" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="4" t="s">
+      <c r="E6" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="0" t="s">
         <v>20</v>
       </c>
-      <c r="G6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H6" s="7" t="n">
+      <c r="G6" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H6" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -555,7 +534,7 @@
       <c r="A7" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C7" s="0" t="n">
@@ -564,16 +543,16 @@
       <c r="D7" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="4" t="s">
+      <c r="E7" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F7" s="0" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="7" t="n">
+      <c r="G7" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -582,7 +561,7 @@
       <c r="A8" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C8" s="0" t="n">
@@ -591,16 +570,16 @@
       <c r="D8" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E8" s="4" t="s">
+      <c r="E8" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F8" s="0" t="s">
         <v>22</v>
       </c>
-      <c r="G8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H8" s="7" t="n">
+      <c r="G8" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H8" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -609,7 +588,7 @@
       <c r="A9" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C9" s="0" t="n">
@@ -618,16 +597,16 @@
       <c r="D9" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E9" s="4" t="s">
+      <c r="E9" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F9" s="0" t="s">
         <v>23</v>
       </c>
-      <c r="G9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H9" s="7" t="n">
+      <c r="G9" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H9" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -636,7 +615,7 @@
       <c r="A10" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C10" s="0" t="n">
@@ -645,16 +624,16 @@
       <c r="D10" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E10" s="4" t="s">
+      <c r="E10" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F10" s="0" t="s">
         <v>24</v>
       </c>
-      <c r="G10" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10" s="7" t="n">
+      <c r="G10" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H10" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -663,7 +642,7 @@
       <c r="A11" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C11" s="0" t="n">
@@ -672,16 +651,16 @@
       <c r="D11" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E11" s="4" t="s">
+      <c r="E11" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F11" s="0" t="s">
         <v>25</v>
       </c>
-      <c r="G11" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11" s="7" t="n">
+      <c r="G11" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H11" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -690,7 +669,7 @@
       <c r="A12" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C12" s="0" t="n">
@@ -699,16 +678,16 @@
       <c r="D12" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E12" s="4" t="s">
+      <c r="E12" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F12" s="0" t="s">
         <v>26</v>
       </c>
-      <c r="G12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12" s="7" t="n">
+      <c r="G12" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H12" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -717,7 +696,7 @@
       <c r="A13" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C13" s="0" t="n">
@@ -726,16 +705,16 @@
       <c r="D13" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E13" s="4" t="s">
+      <c r="E13" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F13" s="0" t="s">
         <v>27</v>
       </c>
-      <c r="G13" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13" s="7" t="n">
+      <c r="G13" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H13" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -744,7 +723,7 @@
       <c r="A14" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C14" s="0" t="n">
@@ -753,16 +732,16 @@
       <c r="D14" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E14" s="4" t="s">
+      <c r="E14" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F14" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="G14" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14" s="7" t="n">
+      <c r="G14" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H14" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -771,7 +750,7 @@
       <c r="A15" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C15" s="0" t="n">
@@ -780,16 +759,16 @@
       <c r="D15" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E15" s="4" t="s">
+      <c r="E15" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F15" s="0" t="s">
         <v>29</v>
       </c>
-      <c r="G15" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15" s="7" t="n">
+      <c r="G15" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H15" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -798,7 +777,7 @@
       <c r="A16" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B16" s="4" t="s">
+      <c r="B16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C16" s="0" t="n">
@@ -807,16 +786,16 @@
       <c r="D16" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E16" s="4" t="s">
+      <c r="E16" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F16" s="0" t="s">
         <v>30</v>
       </c>
-      <c r="G16" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16" s="7" t="n">
+      <c r="G16" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H16" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -825,7 +804,7 @@
       <c r="A17" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="4" t="s">
+      <c r="B17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C17" s="0" t="n">
@@ -834,16 +813,16 @@
       <c r="D17" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E17" s="4" t="s">
+      <c r="E17" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F17" s="0" t="s">
         <v>31</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17" s="7" t="n">
+      <c r="G17" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H17" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -852,7 +831,7 @@
       <c r="A18" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C18" s="0" t="n">
@@ -861,16 +840,16 @@
       <c r="D18" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E18" s="4" t="s">
+      <c r="E18" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F18" s="0" t="s">
         <v>32</v>
       </c>
-      <c r="G18" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H18" s="7" t="n">
+      <c r="G18" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H18" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -879,7 +858,7 @@
       <c r="A19" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C19" s="0" t="n">
@@ -888,16 +867,16 @@
       <c r="D19" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E19" s="4" t="s">
+      <c r="E19" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F19" s="0" t="s">
         <v>33</v>
       </c>
-      <c r="G19" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H19" s="7" t="n">
+      <c r="G19" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H19" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -906,7 +885,7 @@
       <c r="A20" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C20" s="0" t="n">
@@ -915,16 +894,16 @@
       <c r="D20" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E20" s="4" t="s">
+      <c r="E20" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="0" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H20" s="7" t="n">
+      <c r="G20" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H20" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -933,7 +912,7 @@
       <c r="A21" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C21" s="0" t="n">
@@ -942,16 +921,16 @@
       <c r="D21" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E21" s="4" t="s">
+      <c r="E21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F21" s="0" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H21" s="7" t="n">
+      <c r="G21" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H21" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -960,7 +939,7 @@
       <c r="A22" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C22" s="0" t="n">
@@ -969,16 +948,16 @@
       <c r="D22" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E22" s="4" t="s">
+      <c r="E22" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F22" s="0" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H22" s="7" t="n">
+      <c r="G22" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H22" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -987,7 +966,7 @@
       <c r="A23" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C23" s="0" t="n">
@@ -996,16 +975,16 @@
       <c r="D23" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="4" t="s">
+      <c r="E23" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F23" s="0" t="s">
         <v>37</v>
       </c>
-      <c r="G23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H23" s="7" t="n">
+      <c r="G23" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H23" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1014,7 +993,7 @@
       <c r="A24" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B24" s="4" t="s">
+      <c r="B24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C24" s="0" t="n">
@@ -1023,16 +1002,16 @@
       <c r="D24" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E24" s="4" t="s">
+      <c r="E24" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F24" s="0" t="s">
         <v>38</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H24" s="7" t="n">
+      <c r="G24" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H24" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1041,7 +1020,7 @@
       <c r="A25" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B25" s="4" t="s">
+      <c r="B25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C25" s="0" t="n">
@@ -1050,16 +1029,16 @@
       <c r="D25" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E25" s="4" t="s">
+      <c r="E25" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F25" s="0" t="s">
         <v>39</v>
       </c>
-      <c r="G25" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H25" s="7" t="n">
+      <c r="G25" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H25" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1068,7 +1047,7 @@
       <c r="A26" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B26" s="4" t="s">
+      <c r="B26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C26" s="0" t="n">
@@ -1077,16 +1056,16 @@
       <c r="D26" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E26" s="4" t="s">
+      <c r="E26" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F26" s="0" t="s">
         <v>40</v>
       </c>
-      <c r="G26" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H26" s="7" t="n">
+      <c r="G26" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H26" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1095,7 +1074,7 @@
       <c r="A27" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B27" s="4" t="s">
+      <c r="B27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C27" s="0" t="n">
@@ -1104,16 +1083,16 @@
       <c r="D27" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E27" s="4" t="s">
+      <c r="E27" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F27" s="0" t="s">
         <v>41</v>
       </c>
-      <c r="G27" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H27" s="7" t="n">
+      <c r="G27" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H27" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1122,7 +1101,7 @@
       <c r="A28" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B28" s="4" t="s">
+      <c r="B28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C28" s="0" t="n">
@@ -1131,16 +1110,16 @@
       <c r="D28" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E28" s="4" t="s">
+      <c r="E28" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F28" s="0" t="s">
         <v>42</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H28" s="7" t="n">
+      <c r="G28" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H28" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1149,7 +1128,7 @@
       <c r="A29" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B29" s="4" t="s">
+      <c r="B29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C29" s="0" t="n">
@@ -1158,16 +1137,16 @@
       <c r="D29" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E29" s="4" t="s">
+      <c r="E29" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F29" s="0" t="s">
         <v>43</v>
       </c>
-      <c r="G29" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H29" s="7" t="n">
+      <c r="G29" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H29" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1176,7 +1155,7 @@
       <c r="A30" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C30" s="0" t="n">
@@ -1185,16 +1164,16 @@
       <c r="D30" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E30" s="4" t="s">
+      <c r="E30" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F30" s="0" t="s">
         <v>44</v>
       </c>
-      <c r="G30" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H30" s="7" t="n">
+      <c r="G30" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H30" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1203,7 +1182,7 @@
       <c r="A31" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C31" s="0" t="n">
@@ -1212,16 +1191,16 @@
       <c r="D31" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E31" s="4" t="s">
+      <c r="E31" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F31" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="G31" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H31" s="7" t="n">
+      <c r="G31" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H31" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1230,7 +1209,7 @@
       <c r="A32" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C32" s="0" t="n">
@@ -1239,16 +1218,16 @@
       <c r="D32" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E32" s="4" t="s">
+      <c r="E32" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F32" s="0" t="s">
         <v>46</v>
       </c>
-      <c r="G32" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H32" s="7" t="n">
+      <c r="G32" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H32" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1257,7 +1236,7 @@
       <c r="A33" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C33" s="0" t="n">
@@ -1266,16 +1245,16 @@
       <c r="D33" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E33" s="4" t="s">
+      <c r="E33" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F33" s="0" t="s">
         <v>47</v>
       </c>
-      <c r="G33" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H33" s="7" t="n">
+      <c r="G33" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H33" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1284,7 +1263,7 @@
       <c r="A34" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C34" s="0" t="n">
@@ -1293,16 +1272,16 @@
       <c r="D34" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E34" s="4" t="s">
+      <c r="E34" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F34" s="0" t="s">
         <v>48</v>
       </c>
-      <c r="G34" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H34" s="7" t="n">
+      <c r="G34" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H34" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1311,7 +1290,7 @@
       <c r="A35" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B35" s="4" t="s">
+      <c r="B35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C35" s="0" t="n">
@@ -1320,16 +1299,16 @@
       <c r="D35" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E35" s="4" t="s">
+      <c r="E35" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F35" s="0" t="s">
         <v>49</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H35" s="7" t="n">
+      <c r="G35" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H35" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1338,7 +1317,7 @@
       <c r="A36" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B36" s="4" t="s">
+      <c r="B36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C36" s="0" t="n">
@@ -1347,16 +1326,16 @@
       <c r="D36" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E36" s="4" t="s">
+      <c r="E36" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F36" s="0" t="s">
         <v>50</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H36" s="7" t="n">
+      <c r="G36" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H36" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -1365,7 +1344,7 @@
       <c r="A37" s="0" t="s">
         <v>12</v>
       </c>
-      <c r="B37" s="4" t="s">
+      <c r="B37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="C37" s="0" t="n">
@@ -1374,27 +1353,21 @@
       <c r="D37" s="0" t="s">
         <v>14</v>
       </c>
-      <c r="E37" s="4" t="s">
+      <c r="E37" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F37" s="0" t="s">
         <v>51</v>
       </c>
-      <c r="G37" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="H37" s="7" t="n">
+      <c r="G37" s="0" t="s">
+        <v>16</v>
+      </c>
+      <c r="H37" s="5" t="n">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
-    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G37" type="list">
-      <formula1>"DirectZol,Trizol"</formula1>
-      <formula2>0</formula2>
-    </dataValidation>
-  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>

--- a/rnaSample/rnaSample_hbrown_10.18.19.xlsx
+++ b/rnaSample/rnaSample_hbrown_10.18.19.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hollybrown/database_files/rnaSample/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA767BC9-0897-E748-A764-1D3516E5A568}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46388D0F-6BF0-684A-AC74-3456018F2EBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="16380" windowHeight="8200" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4100" yWindow="2360" windowWidth="16900" windowHeight="17060" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="188" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="13">
   <si>
     <t>harvestDate</t>
   </si>
@@ -68,14 +68,14 @@
   <si>
     <t>TRIzol</t>
   </si>
+  <si>
+    <t>False</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="&quot;TRUE&quot;;&quot;TRUE&quot;;&quot;FALSE&quot;"/>
-  </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -133,7 +133,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -448,10 +448,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z37"/>
+  <dimension ref="A1:Z40"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F37"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38:I41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -525,9 +525,8 @@
       <c r="G2" t="s">
         <v>11</v>
       </c>
-      <c r="H2" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H2" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -570,9 +569,8 @@
       <c r="G3" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H3" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:26" x14ac:dyDescent="0.2">
@@ -597,9 +595,8 @@
       <c r="G4" t="s">
         <v>11</v>
       </c>
-      <c r="H4" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H4" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:26" x14ac:dyDescent="0.2">
@@ -624,9 +621,8 @@
       <c r="G5" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H5" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:26" x14ac:dyDescent="0.2">
@@ -651,9 +647,8 @@
       <c r="G6" t="s">
         <v>11</v>
       </c>
-      <c r="H6" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H6" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:26" x14ac:dyDescent="0.2">
@@ -678,9 +673,8 @@
       <c r="G7" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H7" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:26" x14ac:dyDescent="0.2">
@@ -705,9 +699,8 @@
       <c r="G8" t="s">
         <v>11</v>
       </c>
-      <c r="H8" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H8" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:26" x14ac:dyDescent="0.2">
@@ -732,9 +725,8 @@
       <c r="G9" t="s">
         <v>11</v>
       </c>
-      <c r="H9" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H9" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:26" x14ac:dyDescent="0.2">
@@ -759,9 +751,8 @@
       <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="H10" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H10" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:26" x14ac:dyDescent="0.2">
@@ -786,9 +777,8 @@
       <c r="G11" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H11" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:26" x14ac:dyDescent="0.2">
@@ -813,9 +803,8 @@
       <c r="G12" t="s">
         <v>11</v>
       </c>
-      <c r="H12" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H12" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:26" x14ac:dyDescent="0.2">
@@ -840,9 +829,8 @@
       <c r="G13" t="s">
         <v>11</v>
       </c>
-      <c r="H13" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H13" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:26" x14ac:dyDescent="0.2">
@@ -867,9 +855,8 @@
       <c r="G14" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H14" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.2">
@@ -894,9 +881,8 @@
       <c r="G15" t="s">
         <v>11</v>
       </c>
-      <c r="H15" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H15" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:26" x14ac:dyDescent="0.2">
@@ -921,9 +907,8 @@
       <c r="G16" t="s">
         <v>11</v>
       </c>
-      <c r="H16" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H16" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.2">
@@ -948,9 +933,8 @@
       <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="H17" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H17" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -975,9 +959,8 @@
       <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="H18" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H18" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
@@ -1002,9 +985,8 @@
       <c r="G19" t="s">
         <v>11</v>
       </c>
-      <c r="H19" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H19" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
@@ -1029,9 +1011,8 @@
       <c r="G20" t="s">
         <v>11</v>
       </c>
-      <c r="H20" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H20" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
@@ -1056,9 +1037,8 @@
       <c r="G21" t="s">
         <v>11</v>
       </c>
-      <c r="H21" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H21" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
@@ -1083,9 +1063,8 @@
       <c r="G22" t="s">
         <v>11</v>
       </c>
-      <c r="H22" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H22" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
@@ -1110,9 +1089,8 @@
       <c r="G23" t="s">
         <v>11</v>
       </c>
-      <c r="H23" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H23" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
@@ -1137,9 +1115,8 @@
       <c r="G24" t="s">
         <v>11</v>
       </c>
-      <c r="H24" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H24" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
@@ -1164,9 +1141,8 @@
       <c r="G25" t="s">
         <v>11</v>
       </c>
-      <c r="H25" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H25" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
@@ -1191,9 +1167,8 @@
       <c r="G26" t="s">
         <v>11</v>
       </c>
-      <c r="H26" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H26" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -1218,9 +1193,8 @@
       <c r="G27" t="s">
         <v>11</v>
       </c>
-      <c r="H27" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H27" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
@@ -1245,9 +1219,8 @@
       <c r="G28" t="s">
         <v>11</v>
       </c>
-      <c r="H28" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H28" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
@@ -1272,9 +1245,8 @@
       <c r="G29" t="s">
         <v>11</v>
       </c>
-      <c r="H29" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H29" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
@@ -1299,9 +1271,8 @@
       <c r="G30" t="s">
         <v>11</v>
       </c>
-      <c r="H30" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H30" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
@@ -1326,9 +1297,8 @@
       <c r="G31" t="s">
         <v>11</v>
       </c>
-      <c r="H31" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H31" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
@@ -1353,9 +1323,8 @@
       <c r="G32" t="s">
         <v>11</v>
       </c>
-      <c r="H32" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H32" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.2">
@@ -1380,9 +1349,8 @@
       <c r="G33" t="s">
         <v>11</v>
       </c>
-      <c r="H33" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H33" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.2">
@@ -1407,9 +1375,8 @@
       <c r="G34" t="s">
         <v>11</v>
       </c>
-      <c r="H34" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H34" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.2">
@@ -1434,9 +1401,8 @@
       <c r="G35" t="s">
         <v>11</v>
       </c>
-      <c r="H35" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H35" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.2">
@@ -1461,9 +1427,8 @@
       <c r="G36" t="s">
         <v>11</v>
       </c>
-      <c r="H36" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
+      <c r="H36" s="5" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.2">
@@ -1488,10 +1453,18 @@
       <c r="G37" t="s">
         <v>11</v>
       </c>
-      <c r="H37" s="5" t="b">
-        <f>FALSE()</f>
-        <v>0</v>
-      </c>
+      <c r="H37" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H38" s="5"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H39" s="5"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H40" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.51180555555555496" footer="0.51180555555555496"/>
